--- a/logs/rooseBERT_scr_seed42.xlsx
+++ b/logs/rooseBERT_scr_seed42.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddore/Documents/RooseBERT/logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C32371-5DD5-F642-ADA6-B23C59E952F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9A4AF6-9E39-6946-9C9A-00A6BD478272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="argument detection" sheetId="3" r:id="rId1"/>
@@ -1455,7 +1455,7 @@
   <dimension ref="A1:L325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="A2" activeCellId="1" sqref="A3:XFD3 A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13834,11 +13834,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="A7" activeCellId="1" sqref="A2:XFD2 A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13894,7 +13893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>168</v>
       </c>
@@ -13932,7 +13931,7 @@
         <v>0.76440611524892199</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>140</v>
       </c>
@@ -13970,7 +13969,7 @@
         <v>0.75833006664053315</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>141</v>
       </c>
@@ -14008,7 +14007,7 @@
         <v>0.75833006664053315</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>113</v>
       </c>
@@ -14046,7 +14045,7 @@
         <v>0.76087808702469617</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>167</v>
       </c>
@@ -14160,7 +14159,7 @@
         <v>0.75480203841630733</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>65</v>
       </c>
@@ -14198,7 +14197,7 @@
         <v>0.76303410427283413</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>126</v>
       </c>
@@ -14502,7 +14501,7 @@
         <v>0.76205409643277144</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -14540,7 +14539,7 @@
         <v>0.75088200705605646</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>175</v>
       </c>
@@ -14578,7 +14577,7 @@
         <v>0.75088200705605646</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -14616,7 +14615,7 @@
         <v>0.76009408075264606</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>156</v>
       </c>
@@ -14730,7 +14729,7 @@
         <v>0.75950607604860843</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>173</v>
       </c>
@@ -14806,7 +14805,7 @@
         <v>0.75872206977655821</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
@@ -14844,7 +14843,7 @@
         <v>0.75735005880047035</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>101</v>
       </c>
@@ -14996,7 +14995,7 @@
         <v>0.75617404939239519</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
@@ -15034,7 +15033,7 @@
         <v>0.75715405723245788</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>108</v>
       </c>
@@ -15110,7 +15109,7 @@
         <v>0.75558604468835755</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>86</v>
       </c>
@@ -15148,7 +15147,7 @@
         <v>0.75460603684829475</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>129</v>
       </c>
@@ -15186,7 +15185,7 @@
         <v>0.74696197569580558</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>142</v>
       </c>
@@ -15338,7 +15337,7 @@
         <v>0.75578204625637002</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
@@ -15376,7 +15375,7 @@
         <v>0.74931399451195613</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>153</v>
       </c>
@@ -15414,7 +15413,7 @@
         <v>0.74931399451195613</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>109</v>
       </c>
@@ -15452,7 +15451,7 @@
         <v>0.75499803998431991</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>151</v>
       </c>
@@ -15490,7 +15489,7 @@
         <v>0.75499803998431991</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>32</v>
       </c>
@@ -15528,7 +15527,7 @@
         <v>0.74931399451195613</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>161</v>
       </c>
@@ -15718,7 +15717,7 @@
         <v>0.75362602900823206</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>165</v>
       </c>
@@ -15756,7 +15755,7 @@
         <v>0.74813798510388085</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>170</v>
       </c>
@@ -16022,7 +16021,7 @@
         <v>0.75774206193649551</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>149</v>
       </c>
@@ -16060,7 +16059,7 @@
         <v>0.74480595844766762</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>164</v>
       </c>
@@ -16250,7 +16249,7 @@
         <v>0.75813406507252057</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>132</v>
       </c>
@@ -16668,7 +16667,7 @@
         <v>0.75186201489611915</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>37</v>
       </c>
@@ -16820,7 +16819,7 @@
         <v>0.75088200705605646</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>119</v>
       </c>
@@ -16858,7 +16857,7 @@
         <v>0.753234025872207</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>93</v>
       </c>
@@ -17086,7 +17085,7 @@
         <v>0.76048608388867112</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
@@ -17124,7 +17123,7 @@
         <v>0.76362210897687177</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>122</v>
       </c>
@@ -17200,7 +17199,7 @@
         <v>0.75029400235201882</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>67</v>
       </c>
@@ -17314,7 +17313,7 @@
         <v>0.74656997255978053</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>71</v>
       </c>
@@ -17390,7 +17389,7 @@
         <v>0.75676205409643282</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>159</v>
       </c>
@@ -17656,7 +17655,7 @@
         <v>0.74892199137593096</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>106</v>
       </c>
@@ -17922,7 +17921,7 @@
         <v>0.74480595844766762</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>92</v>
       </c>
@@ -17960,7 +17959,7 @@
         <v>0.7430419443355547</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
@@ -18112,7 +18111,7 @@
         <v>0.75343002744021947</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>41</v>
       </c>
@@ -18150,7 +18149,7 @@
         <v>0.75147001176009409</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>110</v>
       </c>
@@ -18188,7 +18187,7 @@
         <v>0.74382595060760481</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>49</v>
       </c>
@@ -18226,7 +18225,7 @@
         <v>0.75068600548804387</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>39</v>
       </c>
@@ -18264,7 +18263,7 @@
         <v>0.75186201489611915</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>58</v>
       </c>
@@ -18302,7 +18301,7 @@
         <v>0.75186201489611915</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>20</v>
       </c>
@@ -18340,7 +18339,7 @@
         <v>0.74656997255978053</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>87</v>
       </c>
@@ -18454,7 +18453,7 @@
         <v>0.75343002744021947</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>150</v>
       </c>
@@ -18492,7 +18491,7 @@
         <v>0.74774598196785569</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>17</v>
       </c>
@@ -18530,7 +18529,7 @@
         <v>0.74715797726381816</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>157</v>
       </c>
@@ -18568,7 +18567,7 @@
         <v>0.74715797726381816</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>83</v>
       </c>
@@ -18606,7 +18605,7 @@
         <v>0.74872598980791849</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>95</v>
       </c>
@@ -18644,7 +18643,7 @@
         <v>0.74147393179145438</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>148</v>
       </c>
@@ -18758,7 +18757,7 @@
         <v>0.74225793806350449</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>44</v>
       </c>
@@ -18796,7 +18795,7 @@
         <v>0.7393179145433163</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>82</v>
       </c>
@@ -18948,7 +18947,7 @@
         <v>0.75147001176009409</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>60</v>
       </c>
@@ -18986,7 +18985,7 @@
         <v>0.73814190513524103</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>99</v>
       </c>
@@ -19024,7 +19023,7 @@
         <v>0.73814190513524103</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>134</v>
       </c>
@@ -19138,7 +19137,7 @@
         <v>0.75362602900823206</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>79</v>
       </c>
@@ -19328,7 +19327,7 @@
         <v>0.7440219521756174</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>21</v>
       </c>
@@ -19366,7 +19365,7 @@
         <v>0.73872990983927866</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>46</v>
       </c>
@@ -19480,7 +19479,7 @@
         <v>0.75303802430419442</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>18</v>
       </c>
@@ -19518,7 +19517,7 @@
         <v>0.74539396315170525</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>169</v>
       </c>
@@ -19556,7 +19555,7 @@
         <v>0.74539396315170525</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>112</v>
       </c>
@@ -19746,7 +19745,7 @@
         <v>0.75147001176009409</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>88</v>
       </c>
@@ -19784,7 +19783,7 @@
         <v>0.75107800862406904</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>124</v>
       </c>
@@ -19822,7 +19821,7 @@
         <v>0.75107800862406904</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>98</v>
       </c>
@@ -19860,7 +19859,7 @@
         <v>0.75205801646413173</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>72</v>
       </c>
@@ -20012,7 +20011,7 @@
         <v>0.74441395531164245</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>81</v>
       </c>
@@ -20050,7 +20049,7 @@
         <v>0.7504900039200314</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>111</v>
       </c>
@@ -20202,7 +20201,7 @@
         <v>0.74598196785574289</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>139</v>
       </c>
@@ -20354,7 +20353,7 @@
         <v>0.73853390827126619</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>89</v>
       </c>
@@ -20392,7 +20391,7 @@
         <v>0.73402587220697768</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>120</v>
       </c>
@@ -20506,7 +20505,7 @@
         <v>0.75107800862406904</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>35</v>
       </c>
@@ -20544,7 +20543,7 @@
         <v>0.73500588004704037</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>131</v>
       </c>
@@ -20696,7 +20695,7 @@
         <v>0.74362994903959234</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>80</v>
       </c>
@@ -20734,7 +20733,7 @@
         <v>0.74421795374362998</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>91</v>
       </c>
@@ -20772,7 +20771,7 @@
         <v>0.73951391611132888</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>48</v>
       </c>
@@ -20810,7 +20809,7 @@
         <v>0.7375539004312035</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>171</v>
       </c>
@@ -20848,7 +20847,7 @@
         <v>0.7375539004312035</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>137</v>
       </c>
@@ -20886,7 +20885,7 @@
         <v>0.73500588004704037</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>73</v>
       </c>
@@ -20924,7 +20923,7 @@
         <v>0.73088984711877691</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>30</v>
       </c>
@@ -21076,7 +21075,7 @@
         <v>0.75284202273618184</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>55</v>
       </c>
@@ -21190,7 +21189,7 @@
         <v>0.74421795374362998</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>85</v>
       </c>
@@ -21228,7 +21227,7 @@
         <v>0.73637789102312823</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>34</v>
       </c>
@@ -21266,7 +21265,7 @@
         <v>0.73069384555076444</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>162</v>
       </c>
@@ -21342,7 +21341,7 @@
         <v>0.74578596628773031</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>22</v>
       </c>
@@ -21418,7 +21417,7 @@
         <v>0.73735789886319092</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>43</v>
       </c>
@@ -21456,7 +21455,7 @@
         <v>0.72461779694237549</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>138</v>
       </c>
@@ -21494,7 +21493,7 @@
         <v>0.72461779694237549</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>59</v>
       </c>
@@ -21608,7 +21607,7 @@
         <v>0.73814190513524103</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>128</v>
       </c>
@@ -21988,7 +21987,7 @@
         <v>0.72442179537436302</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>36</v>
       </c>
@@ -22026,7 +22025,7 @@
         <v>0.72971383771070164</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>69</v>
       </c>
@@ -22064,7 +22063,7 @@
         <v>0.73539788318306543</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>75</v>
       </c>
@@ -22178,7 +22177,7 @@
         <v>0.7236377891023128</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>104</v>
       </c>
@@ -22216,7 +22215,7 @@
         <v>0.74225793806350449</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>116</v>
       </c>
@@ -22330,7 +22329,7 @@
         <v>0.72206977655821247</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>103</v>
       </c>
@@ -22406,7 +22405,7 @@
         <v>0.72050176401411214</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>40</v>
       </c>
@@ -22444,7 +22443,7 @@
         <v>0.74519796158369267</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>174</v>
       </c>
@@ -22558,7 +22557,7 @@
         <v>0.72108976871814978</v>
       </c>
     </row>
-    <row r="230" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>47</v>
       </c>
@@ -22596,7 +22595,7 @@
         <v>0.72206977655821247</v>
       </c>
     </row>
-    <row r="231" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>163</v>
       </c>
@@ -22672,7 +22671,7 @@
         <v>0.72657781262250098</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>105</v>
       </c>
@@ -22710,7 +22709,7 @@
         <v>0.73598588788710306</v>
       </c>
     </row>
-    <row r="234" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>155</v>
       </c>
@@ -22748,7 +22747,7 @@
         <v>0.71971775774206193</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>15</v>
       </c>
@@ -22786,7 +22785,7 @@
         <v>0.72148177185417484</v>
       </c>
     </row>
-    <row r="236" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>19</v>
       </c>
@@ -22900,7 +22899,7 @@
         <v>0.71991375931007451</v>
       </c>
     </row>
-    <row r="239" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>24</v>
       </c>
@@ -22938,7 +22937,7 @@
         <v>0.72246177969423753</v>
       </c>
     </row>
-    <row r="240" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>160</v>
       </c>
@@ -22976,7 +22975,7 @@
         <v>0.72246177969423753</v>
       </c>
     </row>
-    <row r="241" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>53</v>
       </c>
@@ -23090,7 +23089,7 @@
         <v>0.71638573108584869</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>54</v>
       </c>
@@ -23128,7 +23127,7 @@
         <v>0.74206193649549201</v>
       </c>
     </row>
-    <row r="245" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>143</v>
       </c>
@@ -23318,7 +23317,7 @@
         <v>0.49294394355154841</v>
       </c>
     </row>
-    <row r="250" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>123</v>
       </c>
@@ -23394,7 +23393,7 @@
         <v>0.47020776166209333</v>
       </c>
     </row>
-    <row r="252" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>51</v>
       </c>
@@ -23432,7 +23431,7 @@
         <v>0.50960407683261466</v>
       </c>
     </row>
-    <row r="253" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>61</v>
       </c>
@@ -23470,7 +23469,7 @@
         <v>0.50039200313602505</v>
       </c>
     </row>
-    <row r="254" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>117</v>
       </c>
@@ -23508,7 +23507,7 @@
         <v>0.50039200313602505</v>
       </c>
     </row>
-    <row r="255" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>28</v>
       </c>
@@ -23546,7 +23545,7 @@
         <v>0.49745197961583693</v>
       </c>
     </row>
-    <row r="256" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>147</v>
       </c>
@@ -23584,7 +23583,7 @@
         <v>0.49745197961583693</v>
       </c>
     </row>
-    <row r="257" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>12</v>
       </c>
@@ -23622,7 +23621,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="258" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>23</v>
       </c>
@@ -23660,7 +23659,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="259" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>25</v>
       </c>
@@ -23698,7 +23697,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="260" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>26</v>
       </c>
@@ -23736,7 +23735,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="261" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>27</v>
       </c>
@@ -23774,7 +23773,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="262" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>31</v>
       </c>
@@ -23812,7 +23811,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="263" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>33</v>
       </c>
@@ -23850,7 +23849,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="264" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>38</v>
       </c>
@@ -23888,7 +23887,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="265" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>42</v>
       </c>
@@ -23926,7 +23925,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="266" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>50</v>
       </c>
@@ -23964,7 +23963,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="267" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>52</v>
       </c>
@@ -24002,7 +24001,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="268" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>56</v>
       </c>
@@ -24040,7 +24039,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="269" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>57</v>
       </c>
@@ -24078,7 +24077,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="270" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>62</v>
       </c>
@@ -24116,7 +24115,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="271" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>63</v>
       </c>
@@ -24154,7 +24153,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="272" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>64</v>
       </c>
@@ -24192,7 +24191,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="273" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>66</v>
       </c>
@@ -24230,7 +24229,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="274" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>68</v>
       </c>
@@ -24268,7 +24267,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="275" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>76</v>
       </c>
@@ -24306,7 +24305,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="276" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>77</v>
       </c>
@@ -24344,7 +24343,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="277" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>78</v>
       </c>
@@ -24382,7 +24381,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="278" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>90</v>
       </c>
@@ -24420,7 +24419,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="279" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>94</v>
       </c>
@@ -24458,7 +24457,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="280" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>96</v>
       </c>
@@ -24496,7 +24495,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="281" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>97</v>
       </c>
@@ -24534,7 +24533,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="282" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>100</v>
       </c>
@@ -24572,7 +24571,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="283" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>102</v>
       </c>
@@ -24610,7 +24609,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="284" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>107</v>
       </c>
@@ -24648,7 +24647,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="285" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>114</v>
       </c>
@@ -24686,7 +24685,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="286" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>115</v>
       </c>
@@ -24724,7 +24723,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="287" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>118</v>
       </c>
@@ -24762,7 +24761,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="288" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>125</v>
       </c>
@@ -24800,7 +24799,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="289" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>127</v>
       </c>
@@ -24838,7 +24837,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="290" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>130</v>
       </c>
@@ -24876,7 +24875,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>133</v>
       </c>
@@ -24914,7 +24913,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="292" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>135</v>
       </c>
@@ -24952,7 +24951,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>136</v>
       </c>
@@ -24990,7 +24989,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>144</v>
       </c>
@@ -25028,7 +25027,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>145</v>
       </c>
@@ -25066,7 +25065,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="296" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>146</v>
       </c>
@@ -25104,7 +25103,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="297" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>152</v>
       </c>
@@ -25142,7 +25141,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="298" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>154</v>
       </c>
@@ -25180,7 +25179,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>158</v>
       </c>
@@ -25218,7 +25217,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="300" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>166</v>
       </c>
@@ -25256,7 +25255,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="301" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>172</v>
       </c>
@@ -26207,13 +26206,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C325" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="uncased"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C325" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L325">
     <sortCondition descending="1" ref="I1:I325"/>
   </sortState>
@@ -26225,8 +26218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L325"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" activeCellId="1" sqref="A2:XFD2 A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -38607,10 +38600,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L325"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
@@ -38667,7 +38659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>124</v>
       </c>
@@ -38743,7 +38735,7 @@
         <v>0.70741183502689775</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>39</v>
       </c>
@@ -38895,7 +38887,7 @@
         <v>0.70053795576808131</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>89</v>
       </c>
@@ -38971,7 +38963,7 @@
         <v>0.70263000597728631</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>163</v>
       </c>
@@ -39085,7 +39077,7 @@
         <v>0.7017334130304842</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>99</v>
       </c>
@@ -39199,7 +39191,7 @@
         <v>0.70053795576808131</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
@@ -39237,7 +39229,7 @@
         <v>0.70143454871488342</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>170</v>
       </c>
@@ -39313,7 +39305,7 @@
         <v>0.70143454871488342</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>64</v>
       </c>
@@ -39351,7 +39343,7 @@
         <v>0.69784817692767487</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>44</v>
       </c>
@@ -39427,7 +39419,7 @@
         <v>0.70203227734608487</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>16</v>
       </c>
@@ -39579,7 +39571,7 @@
         <v>0.69874476987447698</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>148</v>
       </c>
@@ -39655,7 +39647,7 @@
         <v>0.70083682008368198</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>20</v>
       </c>
@@ -39731,7 +39723,7 @@
         <v>0.69754931261207409</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>131</v>
       </c>
@@ -39769,7 +39761,7 @@
         <v>0.69276748356246265</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>34</v>
       </c>
@@ -39807,7 +39799,7 @@
         <v>0.69485953377166765</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>45</v>
       </c>
@@ -39845,7 +39837,7 @@
         <v>0.69695158398087265</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>171</v>
       </c>
@@ -39921,7 +39913,7 @@
         <v>0.70143454871488342</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>43</v>
       </c>
@@ -39997,7 +39989,7 @@
         <v>0.69874476987447698</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>142</v>
       </c>
@@ -40073,7 +40065,7 @@
         <v>0.69844590555887631</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>24</v>
       </c>
@@ -40225,7 +40217,7 @@
         <v>0.69665271966527198</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>104</v>
       </c>
@@ -40263,7 +40255,7 @@
         <v>0.68888224745965332</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>21</v>
       </c>
@@ -40339,7 +40331,7 @@
         <v>0.69814704124327553</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>19</v>
       </c>
@@ -40377,7 +40369,7 @@
         <v>0.69007770472205621</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>84</v>
       </c>
@@ -40453,7 +40445,7 @@
         <v>0.69515839808726843</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>146</v>
       </c>
@@ -40491,7 +40483,7 @@
         <v>0.69246861924686187</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>161</v>
       </c>
@@ -40681,7 +40673,7 @@
         <v>0.69276748356246265</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>62</v>
       </c>
@@ -40719,7 +40711,7 @@
         <v>0.69157202630005976</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>65</v>
       </c>
@@ -40757,7 +40749,7 @@
         <v>0.69784817692767487</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>121</v>
       </c>
@@ -40909,7 +40901,7 @@
         <v>0.69216975493126121</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>175</v>
       </c>
@@ -40985,7 +40977,7 @@
         <v>0.68858338314405265</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>23</v>
       </c>
@@ -41099,7 +41091,7 @@
         <v>0.69037656903765687</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>164</v>
       </c>
@@ -41137,7 +41129,7 @@
         <v>0.68947997609085476</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>18</v>
       </c>
@@ -41175,7 +41167,7 @@
         <v>0.6858936043036461</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>81</v>
       </c>
@@ -41213,7 +41205,7 @@
         <v>0.68947997609085476</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>140</v>
       </c>
@@ -41289,7 +41281,7 @@
         <v>0.69187089061566054</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>48</v>
       </c>
@@ -41441,7 +41433,7 @@
         <v>0.68947997609085476</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>169</v>
       </c>
@@ -41479,7 +41471,7 @@
         <v>0.67931858936043032</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>58</v>
       </c>
@@ -41517,7 +41509,7 @@
         <v>0.68051404662283321</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>74</v>
       </c>
@@ -41631,7 +41623,7 @@
         <v>0.68738792588164976</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>88</v>
       </c>
@@ -41669,7 +41661,7 @@
         <v>0.67423789599521822</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>156</v>
       </c>
@@ -41821,7 +41813,7 @@
         <v>0.68529587567244477</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>109</v>
       </c>
@@ -41859,7 +41851,7 @@
         <v>0.69037656903765687</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>35</v>
       </c>
@@ -41897,7 +41889,7 @@
         <v>0.67842199641362821</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>165</v>
       </c>
@@ -41973,7 +41965,7 @@
         <v>0.68858338314405265</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>60</v>
       </c>
@@ -42011,7 +42003,7 @@
         <v>0.67274357441721455</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>133</v>
       </c>
@@ -42125,7 +42117,7 @@
         <v>0.68738792588164976</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>57</v>
       </c>
@@ -42163,7 +42155,7 @@
         <v>0.68200836820083677</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>82</v>
       </c>
@@ -42201,7 +42193,7 @@
         <v>0.67872086072922888</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>149</v>
       </c>
@@ -42277,7 +42269,7 @@
         <v>0.68499701135684399</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>153</v>
       </c>
@@ -42315,7 +42307,7 @@
         <v>0.67573221757322177</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>17</v>
       </c>
@@ -42353,7 +42345,7 @@
         <v>0.68529587567244477</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>69</v>
       </c>
@@ -42543,7 +42535,7 @@
         <v>0.67632994620442322</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>94</v>
       </c>
@@ -42581,7 +42573,7 @@
         <v>0.6775254034668261</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>54</v>
       </c>
@@ -43075,7 +43067,7 @@
         <v>0.67872086072922888</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>33</v>
       </c>
@@ -43113,7 +43105,7 @@
         <v>0.66557083084279733</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>141</v>
       </c>
@@ -43227,7 +43219,7 @@
         <v>0.671249252839211</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>151</v>
       </c>
@@ -43265,7 +43257,7 @@
         <v>0.67095038852361033</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>32</v>
       </c>
@@ -43341,7 +43333,7 @@
         <v>0.67154811715481166</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>138</v>
       </c>
@@ -43379,7 +43371,7 @@
         <v>0.67065152420800955</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>129</v>
       </c>
@@ -43455,7 +43447,7 @@
         <v>0.68021518230723255</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>162</v>
       </c>
@@ -43531,7 +43523,7 @@
         <v>0.67692767483562466</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>47</v>
       </c>
@@ -43569,7 +43561,7 @@
         <v>0.66855947399880455</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>116</v>
       </c>
@@ -43607,7 +43599,7 @@
         <v>0.66945606694560666</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>120</v>
       </c>
@@ -43721,7 +43713,7 @@
         <v>0.66945606694560666</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>87</v>
       </c>
@@ -43759,7 +43751,7 @@
         <v>0.67244471010161389</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>61</v>
       </c>
@@ -43797,7 +43789,7 @@
         <v>0.67393903167961744</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>95</v>
       </c>
@@ -43835,7 +43827,7 @@
         <v>0.67543335325762099</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
         <v>127</v>
       </c>
@@ -43873,7 +43865,7 @@
         <v>0.67244471010161389</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>15</v>
       </c>
@@ -43911,7 +43903,7 @@
         <v>0.66736401673640167</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>52</v>
       </c>
@@ -44025,7 +44017,7 @@
         <v>0.669157202630006</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>122</v>
       </c>
@@ -44063,7 +44055,7 @@
         <v>0.66616855947399878</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>70</v>
       </c>
@@ -44177,7 +44169,7 @@
         <v>0.67274357441721455</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>126</v>
       </c>
@@ -44253,7 +44245,7 @@
         <v>0.66945606694560666</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>157</v>
       </c>
@@ -44443,7 +44435,7 @@
         <v>0.66766288105200244</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>96</v>
       </c>
@@ -44481,7 +44473,7 @@
         <v>0.67872086072922888</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>92</v>
       </c>
@@ -44519,7 +44511,7 @@
         <v>0.67483562462641955</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>147</v>
       </c>
@@ -44595,7 +44587,7 @@
         <v>0.66317991631799167</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>101</v>
       </c>
@@ -44633,7 +44625,7 @@
         <v>0.66855947399880455</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>154</v>
       </c>
@@ -44671,7 +44663,7 @@
         <v>0.67453676031081888</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>160</v>
       </c>
@@ -44747,7 +44739,7 @@
         <v>0.66676628810520022</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>155</v>
       </c>
@@ -44785,7 +44777,7 @@
         <v>0.65630603705917512</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>12</v>
       </c>
@@ -44823,7 +44815,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>26</v>
       </c>
@@ -44861,7 +44853,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>27</v>
       </c>
@@ -44899,7 +44891,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>31</v>
       </c>
@@ -44937,7 +44929,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>38</v>
       </c>
@@ -44975,7 +44967,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>50</v>
       </c>
@@ -45013,7 +45005,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>56</v>
       </c>
@@ -45051,7 +45043,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>63</v>
       </c>
@@ -45089,7 +45081,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>66</v>
       </c>
@@ -45127,7 +45119,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>67</v>
       </c>
@@ -45165,7 +45157,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>68</v>
       </c>
@@ -45203,7 +45195,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>76</v>
       </c>
@@ -45241,7 +45233,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>80</v>
       </c>
@@ -45279,7 +45271,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>90</v>
       </c>
@@ -45317,7 +45309,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>97</v>
       </c>
@@ -45355,7 +45347,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>100</v>
       </c>
@@ -45393,7 +45385,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>102</v>
       </c>
@@ -45431,7 +45423,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>107</v>
       </c>
@@ -45469,7 +45461,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>115</v>
       </c>
@@ -45507,7 +45499,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>130</v>
       </c>
@@ -45545,7 +45537,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>135</v>
       </c>
@@ -45583,7 +45575,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>144</v>
       </c>
@@ -45621,7 +45613,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>158</v>
       </c>
@@ -45659,7 +45651,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>166</v>
       </c>
@@ -45697,7 +45689,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>172</v>
       </c>
@@ -46533,7 +46525,7 @@
         <v>0.66975493126120744</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>150</v>
       </c>
@@ -46723,7 +46715,7 @@
         <v>0.65809922295277945</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>111</v>
       </c>
@@ -46837,7 +46829,7 @@
         <v>0.66347878063359234</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>145</v>
       </c>
@@ -46913,7 +46905,7 @@
         <v>0.6566049013747759</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>53</v>
       </c>
@@ -46989,7 +46981,7 @@
         <v>0.66646742378959956</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>108</v>
       </c>
@@ -47027,7 +47019,7 @@
         <v>0.66317991631799167</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
         <v>59</v>
       </c>
@@ -47103,7 +47095,7 @@
         <v>0.66826060968320378</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
         <v>93</v>
       </c>
@@ -47141,7 +47133,7 @@
         <v>0.65301852958756723</v>
       </c>
     </row>
-    <row r="225" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
         <v>86</v>
       </c>
@@ -47179,7 +47171,7 @@
         <v>0.65690376569037656</v>
       </c>
     </row>
-    <row r="226" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>91</v>
       </c>
@@ -47217,7 +47209,7 @@
         <v>0.65301852958756723</v>
       </c>
     </row>
-    <row r="227" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>36</v>
       </c>
@@ -47255,7 +47247,7 @@
         <v>0.64644351464435146</v>
       </c>
     </row>
-    <row r="228" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>30</v>
       </c>
@@ -47293,7 +47285,7 @@
         <v>0.65152420800956368</v>
       </c>
     </row>
-    <row r="229" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>137</v>
       </c>
@@ -47369,7 +47361,7 @@
         <v>0.65212193664076512</v>
       </c>
     </row>
-    <row r="231" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>71</v>
       </c>
@@ -47407,7 +47399,7 @@
         <v>0.65092647937836223</v>
       </c>
     </row>
-    <row r="232" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>103</v>
       </c>
@@ -47445,7 +47437,7 @@
         <v>0.65182307232516434</v>
       </c>
     </row>
-    <row r="233" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>55</v>
       </c>
@@ -47521,7 +47513,7 @@
         <v>0.661685594739988</v>
       </c>
     </row>
-    <row r="235" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>22</v>
       </c>
@@ -47597,7 +47589,7 @@
         <v>0.65869695158398089</v>
       </c>
     </row>
-    <row r="237" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>78</v>
       </c>
@@ -47673,7 +47665,7 @@
         <v>0.65570830842797367</v>
       </c>
     </row>
-    <row r="239" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>143</v>
       </c>
@@ -47787,7 +47779,7 @@
         <v>0.66527196652719667</v>
       </c>
     </row>
-    <row r="242" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A242" s="7" t="s">
         <v>114</v>
       </c>
@@ -47825,7 +47817,7 @@
         <v>0.64973102211595934</v>
       </c>
     </row>
-    <row r="243" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>29</v>
       </c>
@@ -47863,7 +47855,7 @@
         <v>0.65301852958756723</v>
       </c>
     </row>
-    <row r="244" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
         <v>167</v>
       </c>
@@ -47939,7 +47931,7 @@
         <v>0.53108188882247465</v>
       </c>
     </row>
-    <row r="246" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>110</v>
       </c>
@@ -48053,7 +48045,7 @@
         <v>0.66317991631799167</v>
       </c>
     </row>
-    <row r="249" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>159</v>
       </c>
@@ -48091,7 +48083,7 @@
         <v>0.64763897190675435</v>
       </c>
     </row>
-    <row r="250" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
         <v>85</v>
       </c>
@@ -48129,7 +48121,7 @@
         <v>0.6449491930663479</v>
       </c>
     </row>
-    <row r="251" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>132</v>
       </c>
@@ -48205,7 +48197,7 @@
         <v>0.65750149432157801</v>
       </c>
     </row>
-    <row r="253" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>134</v>
       </c>
@@ -48243,7 +48235,7 @@
         <v>0.65570830842797367</v>
       </c>
     </row>
-    <row r="254" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>168</v>
       </c>
@@ -48471,7 +48463,7 @@
         <v>0.64853556485355646</v>
       </c>
     </row>
-    <row r="260" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
         <v>139</v>
       </c>
@@ -48509,7 +48501,7 @@
         <v>0.65212193664076512</v>
       </c>
     </row>
-    <row r="261" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
         <v>73</v>
       </c>
@@ -48585,7 +48577,7 @@
         <v>0.65271966527196656</v>
       </c>
     </row>
-    <row r="263" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>49</v>
       </c>
@@ -48813,7 +48805,7 @@
         <v>0.65451285116557079</v>
       </c>
     </row>
-    <row r="269" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>174</v>
       </c>
@@ -48851,7 +48843,7 @@
         <v>0.65600717274357445</v>
       </c>
     </row>
-    <row r="270" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>106</v>
       </c>
@@ -48889,7 +48881,7 @@
         <v>0.63120143454871491</v>
       </c>
     </row>
-    <row r="271" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>79</v>
       </c>
@@ -49003,7 +48995,7 @@
         <v>0.65451285116557079</v>
       </c>
     </row>
-    <row r="274" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>25</v>
       </c>
@@ -49041,7 +49033,7 @@
         <v>0.65032875074716079</v>
       </c>
     </row>
-    <row r="275" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>40</v>
       </c>
@@ -49117,7 +49109,7 @@
         <v>0.64196054991034068</v>
       </c>
     </row>
-    <row r="277" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>83</v>
       </c>
@@ -49155,7 +49147,7 @@
         <v>0.64136282127913924</v>
       </c>
     </row>
-    <row r="278" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>125</v>
       </c>
@@ -49421,7 +49413,7 @@
         <v>0.6566049013747759</v>
       </c>
     </row>
-    <row r="285" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>37</v>
       </c>
@@ -49535,7 +49527,7 @@
         <v>0.64674237895995224</v>
       </c>
     </row>
-    <row r="288" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>41</v>
       </c>
@@ -49573,7 +49565,7 @@
         <v>0.64405260011954568</v>
       </c>
     </row>
-    <row r="289" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>128</v>
       </c>
@@ -49649,7 +49641,7 @@
         <v>0.65032875074716079</v>
       </c>
     </row>
-    <row r="291" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>77</v>
       </c>
@@ -49725,7 +49717,7 @@
         <v>0.6449491930663479</v>
       </c>
     </row>
-    <row r="293" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
         <v>119</v>
       </c>
@@ -49763,7 +49755,7 @@
         <v>0.64614465032875079</v>
       </c>
     </row>
-    <row r="294" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>98</v>
       </c>
@@ -49801,7 +49793,7 @@
         <v>0.64315600717274357</v>
       </c>
     </row>
-    <row r="295" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>117</v>
       </c>
@@ -49915,7 +49907,7 @@
         <v>0.63538553496712491</v>
       </c>
     </row>
-    <row r="298" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A298" s="7" t="s">
         <v>113</v>
       </c>
@@ -49953,7 +49945,7 @@
         <v>0.63777644949193069</v>
       </c>
     </row>
-    <row r="299" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A299" s="7" t="s">
         <v>105</v>
       </c>
@@ -50257,7 +50249,7 @@
         <v>0.64524805738194857</v>
       </c>
     </row>
-    <row r="307" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
         <v>173</v>
       </c>
@@ -50371,7 +50363,7 @@
         <v>0.63837417812313213</v>
       </c>
     </row>
-    <row r="310" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
         <v>112</v>
       </c>
@@ -50447,7 +50439,7 @@
         <v>0.63389121338912136</v>
       </c>
     </row>
-    <row r="312" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
         <v>118</v>
       </c>
@@ -50485,7 +50477,7 @@
         <v>0.62851165570830847</v>
       </c>
     </row>
-    <row r="313" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
         <v>75</v>
       </c>
@@ -50561,7 +50553,7 @@
         <v>0.6428571428571429</v>
       </c>
     </row>
-    <row r="315" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
         <v>51</v>
       </c>
@@ -50599,7 +50591,7 @@
         <v>0.63419007770472202</v>
       </c>
     </row>
-    <row r="316" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
         <v>72</v>
       </c>
@@ -50675,7 +50667,7 @@
         <v>0.63419007770472202</v>
       </c>
     </row>
-    <row r="318" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
         <v>136</v>
       </c>
@@ -50713,7 +50705,7 @@
         <v>0.63568439928272569</v>
       </c>
     </row>
-    <row r="319" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
         <v>28</v>
       </c>
@@ -50751,7 +50743,7 @@
         <v>0.63986849970113568</v>
       </c>
     </row>
-    <row r="320" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
         <v>123</v>
       </c>
@@ -50827,7 +50819,7 @@
         <v>0.62044231918708903</v>
       </c>
     </row>
-    <row r="322" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
         <v>42</v>
       </c>
@@ -50865,7 +50857,7 @@
         <v>0.62612074118350269</v>
       </c>
     </row>
-    <row r="323" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
         <v>152</v>
       </c>
@@ -50980,13 +50972,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C325" xr:uid="{00000000-0001-0000-0300-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="uncased"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C325" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L325">
     <sortCondition descending="1" ref="I1:I325"/>
   </sortState>
